--- a/data/Rivers/OwahangaatOwahangaStation_3f7533e76d.xlsx
+++ b/data/Rivers/OwahangaatOwahangaStation_3f7533e76d.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -535,7 +535,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -574,7 +574,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -613,7 +613,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -656,7 +656,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -734,7 +734,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -777,7 +777,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -820,7 +820,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -863,7 +863,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -902,7 +902,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -941,7 +941,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -980,7 +980,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2249,7 +2249,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2534,7 +2534,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2948,7 +2948,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3393,7 +3393,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3479,7 +3479,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3522,7 +3522,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3600,7 +3600,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3639,7 +3639,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3682,7 +3682,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -4053,7 +4053,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -4170,7 +4170,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -4256,7 +4256,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -4334,7 +4334,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4455,7 +4455,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4584,7 +4584,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4662,7 +4662,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4701,7 +4701,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4771,7 +4771,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4868,7 +4868,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4993,7 +4993,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -5071,7 +5071,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -5239,7 +5239,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -5360,7 +5360,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -5446,7 +5446,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -5485,7 +5485,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -5528,7 +5528,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -5606,7 +5606,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5649,7 +5649,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -5735,7 +5735,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -5774,7 +5774,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -5813,7 +5813,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5852,7 +5852,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">

--- a/data/Rivers/OwahangaatOwahangaStation_3f7533e76d.xlsx
+++ b/data/Rivers/OwahangaatOwahangaStation_3f7533e76d.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:I256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -828,7 +828,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.008</t>
+          <t>0.0080</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -871,7 +871,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7.000</t>
+          <t>0.3400</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ASTM D3977-97</t>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -902,7 +902,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -910,7 +910,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.3400</t>
+          <t>0.01900</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -941,7 +941,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -949,7 +949,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.01900</t>
+          <t>6.04000</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -959,10 +959,14 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>NTU</t>
+        </is>
+      </c>
       <c r="H13" t="n">
         <v>600</v>
       </c>
@@ -980,15 +984,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>44362.51041666666</v>
+        <v>44397.5</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6.04000</t>
+          <t>0.0280</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -998,12 +1002,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1011,7 +1015,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>8.340</t>
+          <t>7.890</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1027,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1031,7 +1035,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.0280</t>
+          <t>0.400</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1039,14 +1043,10 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.400</t>
+          <t>0.01600</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1082,12 +1082,12 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
         <v>600</v>
       </c>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.01600</t>
+          <t>840</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1123,10 +1123,14 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>MPN/100mL</t>
+        </is>
+      </c>
       <c r="H17" t="n">
         <v>600</v>
       </c>
@@ -1144,7 +1148,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1152,7 +1156,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>11.030</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1160,14 +1164,10 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>APHA 21st Edition,9223B:2005</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>11.030</t>
+          <t>7.890</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1206,7 +1206,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7.890</t>
+          <t>0.3920</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1242,10 +1242,14 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1265,7 +1269,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1273,7 +1277,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.3920</t>
+          <t>0.007</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1308,7 +1312,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1316,7 +1320,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.007</t>
+          <t>0.4280</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1326,7 +1330,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+          <t>Calculated (NH4 + TON)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1335,7 +1339,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1351,7 +1355,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1359,7 +1363,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.428</t>
+          <t>0.9200</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1369,16 +1373,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Calculated (NH4 + TON)</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>0.1200</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ASTM D3977-97</t>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.9200</t>
+          <t>79.20000</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1451,10 +1451,14 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>NTU</t>
+        </is>
+      </c>
       <c r="H25" t="n">
         <v>600</v>
       </c>
@@ -1472,15 +1476,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>44397.5</v>
+        <v>44418.52083333334</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.1200</t>
+          <t>0.0070</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1490,16 +1494,20 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H26" t="n">
         <v>600</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>7.890</t>
+          <t>8.200</t>
         </is>
       </c>
     </row>
@@ -1511,15 +1519,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>44397.5</v>
+        <v>44418.52083333334</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>79.20000</t>
+          <t>&lt;0.100</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1527,14 +1535,10 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
-        </is>
-      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>m</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1542,7 +1546,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>7.890</t>
+          <t>8.200</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1558,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1562,7 +1566,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.0070</t>
+          <t>0.02400</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1572,14 +1576,10 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
         <v>600</v>
       </c>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>&lt;0.100</t>
+          <t>3100</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1613,10 +1613,14 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>MPN/100mL</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -1636,7 +1640,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1644,7 +1648,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.02400</t>
+          <t>12.420</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1652,12 +1656,12 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H30" t="n">
         <v>600</v>
       </c>
@@ -1675,7 +1679,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1683,7 +1687,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>8.200</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1691,14 +1695,10 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>APHA 21st Edition,9223B:2005</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>12.420</t>
+          <t>0.5290</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1734,10 +1734,14 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -1757,7 +1761,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1765,7 +1769,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>8.200</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1773,10 +1777,14 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -1796,7 +1804,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1804,7 +1812,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.5290</t>
+          <t>0.5370</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1814,7 +1822,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+          <t>Calculated (NH4 + TON)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1823,7 +1831,7 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -1839,7 +1847,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1847,7 +1855,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1857,14 +1865,10 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
         <v>600</v>
       </c>
@@ -1882,7 +1886,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1890,7 +1894,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.537</t>
+          <t>0.2150</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1900,16 +1904,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Calculated (NH4 + TON)</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>237.0</t>
+          <t>138.00000</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1943,10 +1943,14 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ASTM D3977-97</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>NTU</t>
+        </is>
+      </c>
       <c r="H37" t="n">
         <v>600</v>
       </c>
@@ -1964,15 +1968,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>44418.52083333334</v>
+        <v>44453.52083333334</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.0290</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1982,16 +1986,20 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H38" t="n">
         <v>600</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>8.200</t>
+          <t>7.940</t>
         </is>
       </c>
     </row>
@@ -2003,15 +2011,15 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>44418.52083333334</v>
+        <v>44453.52083333334</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.2150</t>
+          <t>0.100</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2019,18 +2027,18 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="H39" t="n">
         <v>600</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>8.200</t>
+          <t>7.940</t>
         </is>
       </c>
     </row>
@@ -2042,15 +2050,15 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>44418.52083333334</v>
+        <v>44453.52083333334</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>138.00000</t>
+          <t>0.01100</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2060,20 +2068,16 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>NTU</t>
-        </is>
-      </c>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
         <v>600</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>8.200</t>
+          <t>7.940</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2089,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -2093,7 +2097,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.0290</t>
+          <t>3500</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2103,12 +2107,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+          <t>APHA 21st Edition,9223B:2005</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>MPN/100mL</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -2128,7 +2132,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2136,7 +2140,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>10.750</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2147,7 +2151,7 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -2167,7 +2171,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2175,7 +2179,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.01100</t>
+          <t>7.940</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2183,12 +2187,12 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
       <c r="H43" t="n">
         <v>600</v>
       </c>
@@ -2206,7 +2210,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2214,7 +2218,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3500</t>
+          <t>0.0850</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2224,12 +2228,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>APHA 21st Edition,9223B:2005</t>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -2249,7 +2253,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2257,7 +2261,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>10.750</t>
+          <t>0.006</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2265,10 +2269,14 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -2288,7 +2296,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2296,7 +2304,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>7.940</t>
+          <t>0.1190</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2304,14 +2312,18 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2327,7 +2339,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2335,7 +2347,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.0850</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2345,14 +2357,10 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
         <v>600</v>
       </c>
@@ -2370,7 +2378,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2378,7 +2386,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.006</t>
+          <t>0.2750</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2388,14 +2396,10 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
         <v>600</v>
       </c>
@@ -2413,7 +2417,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2421,7 +2425,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.119</t>
+          <t>1000.00000</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2431,16 +2435,16 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Calculated (NH4 + TON)</t>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>NTU</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2456,15 +2460,15 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>44453.52083333334</v>
+        <v>44481.44444444445</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1840</t>
+          <t>0.0290</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2474,16 +2478,20 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ASTM D3977-97</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H50" t="n">
         <v>600</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>7.940</t>
+          <t>7.780</t>
         </is>
       </c>
     </row>
@@ -2495,15 +2503,15 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
-        <v>44453.52083333334</v>
+        <v>44481.44444444445</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.130</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2513,16 +2521,20 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
+          <t>SHMAK Tube (&lt; 0.5 m)</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="H51" t="n">
         <v>600</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>7.940</t>
+          <t>7.780</t>
         </is>
       </c>
     </row>
@@ -2534,15 +2546,15 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
-        <v>44453.52083333334</v>
+        <v>44481.44444444445</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.2750</t>
+          <t>0.01500</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2552,7 +2564,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -2561,7 +2573,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>7.940</t>
+          <t>7.780</t>
         </is>
       </c>
     </row>
@@ -2573,15 +2585,15 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
-        <v>44453.52083333334</v>
+        <v>44481.44444444445</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1000.00000</t>
+          <t>9700</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2591,12 +2603,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+          <t>APHA 21st Edition,9223B:2005</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>MPN/100mL</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -2604,7 +2616,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>7.940</t>
+          <t>7.780</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2628,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2624,7 +2636,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.0290</t>
+          <t>9.810</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2632,11 +2644,7 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
-        </is>
-      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
           <t>g/m3</t>
@@ -2659,7 +2667,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2667,7 +2675,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.130</t>
+          <t>7.780</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2675,14 +2683,10 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>SHMAK Tube (&lt; 0.5 m)</t>
-        </is>
-      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -2702,7 +2706,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2710,7 +2714,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.01500</t>
+          <t>0.1250</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2720,10 +2724,14 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H56" t="n">
         <v>600</v>
       </c>
@@ -2741,7 +2749,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2749,7 +2757,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>9700</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2759,12 +2767,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>APHA 21st Edition,9223B:2005</t>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -2784,7 +2792,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2792,7 +2800,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>9.810</t>
+          <t>0.1590</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2800,14 +2808,18 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -2823,7 +2835,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2831,7 +2843,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>7.780</t>
+          <t>0.8300</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2839,12 +2851,12 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>pH</t>
-        </is>
-      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
         <v>600</v>
       </c>
@@ -2862,7 +2874,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2870,7 +2882,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.1250</t>
+          <t>0.1130</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2880,14 +2892,10 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
         <v>600</v>
       </c>
@@ -2905,7 +2913,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2913,7 +2921,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>63.80000</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2923,12 +2931,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>NTU</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -2948,15 +2956,15 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
-        <v>44481.44444444445</v>
+        <v>44509.5</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.159</t>
+          <t>0.1080</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2966,20 +2974,20 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Calculated (NH4 + TON)</t>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>7.780</t>
+          <t>7.960</t>
         </is>
       </c>
     </row>
@@ -2991,15 +2999,15 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
-        <v>44481.44444444445</v>
+        <v>44509.5</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>74.00</t>
+          <t>0.400</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3007,18 +3015,18 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>ASTM D3977-97</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="H63" t="n">
         <v>600</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>7.780</t>
+          <t>7.960</t>
         </is>
       </c>
     </row>
@@ -3030,15 +3038,15 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
-        <v>44481.44444444445</v>
+        <v>44509.5</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.8300</t>
+          <t>&lt;0.001000</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3048,7 +3056,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -3057,7 +3065,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>7.780</t>
+          <t>7.960</t>
         </is>
       </c>
     </row>
@@ -3069,15 +3077,15 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
-        <v>44481.44444444445</v>
+        <v>44509.5</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.1130</t>
+          <t>&lt;4</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3087,16 +3095,20 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr"/>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>MPN/100mL</t>
+        </is>
+      </c>
       <c r="H65" t="n">
         <v>600</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>7.780</t>
+          <t>7.960</t>
         </is>
       </c>
     </row>
@@ -3108,15 +3120,15 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
-        <v>44481.44444444445</v>
+        <v>44509.5</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>63.80000</t>
+          <t>9.490</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3124,14 +3136,10 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
-        </is>
-      </c>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -3139,7 +3147,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>7.780</t>
+          <t>7.960</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3159,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -3159,7 +3167,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.1080</t>
+          <t>7.960</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3167,14 +3175,10 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
-        </is>
-      </c>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -3194,7 +3198,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -3202,7 +3206,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.400</t>
+          <t>0.0160</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3210,10 +3214,14 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -3233,7 +3241,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3241,7 +3249,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>&lt;0.001000</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3251,10 +3259,14 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr"/>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H69" t="n">
         <v>600</v>
       </c>
@@ -3272,7 +3284,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3280,7 +3292,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>&lt;4</t>
+          <t>0.1280</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3290,16 +3302,16 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>APHA 21st Edition,9223B:2005</t>
+          <t>Calculated (NH4 + TON)</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -3315,7 +3327,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3323,7 +3335,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>9.490</t>
+          <t>0.3700</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3331,12 +3343,12 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
         <v>600</v>
       </c>
@@ -3354,7 +3366,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3362,7 +3374,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>7.960</t>
+          <t>0.02200</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3370,12 +3382,12 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>pH</t>
-        </is>
-      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
         <v>600</v>
       </c>
@@ -3393,7 +3405,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3401,7 +3413,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.0160</t>
+          <t>0.60000</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3411,12 +3423,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>NTU</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -3436,15 +3448,15 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
-        <v>44509.5</v>
+        <v>44537.47916666666</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>0.0170</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3454,12 +3466,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -3467,7 +3479,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>7.960</t>
+          <t>7.640</t>
         </is>
       </c>
     </row>
@@ -3479,15 +3491,15 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
-        <v>44509.5</v>
+        <v>44537.47916666666</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0.128</t>
+          <t>1.200</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3495,22 +3507,18 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Calculated (NH4 + TON)</t>
-        </is>
-      </c>
+      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>m</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>7.960</t>
+          <t>7.640</t>
         </is>
       </c>
     </row>
@@ -3522,15 +3530,15 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
-        <v>44509.5</v>
+        <v>44537.47916666666</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.003000</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3540,7 +3548,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>ASTM D3977-97</t>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -3549,7 +3557,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>7.960</t>
+          <t>7.640</t>
         </is>
       </c>
     </row>
@@ -3561,15 +3569,15 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
-        <v>44509.5</v>
+        <v>44537.47916666666</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.3700</t>
+          <t>152</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3579,16 +3587,20 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr"/>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>MPN/100mL</t>
+        </is>
+      </c>
       <c r="H77" t="n">
         <v>600</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>7.960</t>
+          <t>7.640</t>
         </is>
       </c>
     </row>
@@ -3600,15 +3612,15 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
-        <v>44509.5</v>
+        <v>44537.47916666666</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0.02200</t>
+          <t>8.380</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3616,18 +3628,18 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H78" t="n">
         <v>600</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>7.960</t>
+          <t>7.640</t>
         </is>
       </c>
     </row>
@@ -3639,15 +3651,15 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
-        <v>44509.5</v>
+        <v>44537.47916666666</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.60000</t>
+          <t>7.640</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3655,14 +3667,10 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
-        </is>
-      </c>
+      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -3670,7 +3678,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>7.960</t>
+          <t>7.640</t>
         </is>
       </c>
     </row>
@@ -3682,7 +3690,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3690,7 +3698,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.0170</t>
+          <t>&lt;0.0020</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3700,12 +3708,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -3725,7 +3733,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3733,7 +3741,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1.200</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3741,10 +3749,14 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -3764,7 +3776,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3772,7 +3784,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0.003000</t>
+          <t>0.0200</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3782,12 +3794,16 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr"/>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H82" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -3803,7 +3819,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3811,7 +3827,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>0.3100</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3821,14 +3837,10 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>APHA 21st Edition,9223B:2005</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>MPN/100mL</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
         <v>600</v>
       </c>
@@ -3846,7 +3858,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3854,7 +3866,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>8.380</t>
+          <t>0.01900</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3862,12 +3874,12 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
         <v>600</v>
       </c>
@@ -3885,7 +3897,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3893,7 +3905,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>7.640</t>
+          <t>0.93000</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3901,10 +3913,14 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>NTU</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -3924,15 +3940,15 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
-        <v>44537.47916666666</v>
+        <v>44587.52430555555</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>&lt;0.0020</t>
+          <t>0.0060</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3942,12 +3958,12 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -3955,7 +3971,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>7.640</t>
+          <t>7.910</t>
         </is>
       </c>
     </row>
@@ -3967,15 +3983,15 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
-        <v>44537.47916666666</v>
+        <v>44587.52430555555</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>1.300</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3983,14 +3999,10 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
+      <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>m</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -3998,7 +4010,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>7.640</t>
+          <t>7.910</t>
         </is>
       </c>
     </row>
@@ -4010,15 +4022,15 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
-        <v>44537.47916666666</v>
+        <v>44587.52430555555</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.020</t>
+          <t>0.002000</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4028,20 +4040,16 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Calculated (NH4 + TON)</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>7.640</t>
+          <t>7.910</t>
         </is>
       </c>
     </row>
@@ -4053,15 +4061,15 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
-        <v>44537.47916666666</v>
+        <v>44587.52430555555</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>3.000</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4071,16 +4079,20 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>ASTM D3977-97</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr"/>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>MPN/100mL</t>
+        </is>
+      </c>
       <c r="H89" t="n">
         <v>600</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>7.640</t>
+          <t>7.910</t>
         </is>
       </c>
     </row>
@@ -4092,15 +4104,15 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
-        <v>44537.47916666666</v>
+        <v>44587.52430555555</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.3100</t>
+          <t>8.060</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4108,18 +4120,18 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
       <c r="H90" t="n">
         <v>600</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>7.640</t>
+          <t>7.910</t>
         </is>
       </c>
     </row>
@@ -4131,15 +4143,15 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
-        <v>44537.47916666666</v>
+        <v>44587.52430555555</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0.01900</t>
+          <t>7.910</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4147,18 +4159,18 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
       <c r="H91" t="n">
         <v>600</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>7.640</t>
+          <t>7.910</t>
         </is>
       </c>
     </row>
@@ -4170,15 +4182,15 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
-        <v>44537.47916666666</v>
+        <v>44587.52430555555</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0.93000</t>
+          <t>&lt;0.0020</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4188,12 +4200,12 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -4201,7 +4213,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>7.640</t>
+          <t>7.910</t>
         </is>
       </c>
     </row>
@@ -4213,7 +4225,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -4221,7 +4233,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0.0060</t>
+          <t>&lt;0.002</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4231,12 +4243,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -4256,7 +4268,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -4264,7 +4276,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1.300</t>
+          <t>0.0070</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4272,14 +4284,18 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -4295,7 +4311,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -4303,7 +4319,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.002000</t>
+          <t>0.4100</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4313,7 +4329,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -4334,7 +4350,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4342,7 +4358,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>0.01600</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4352,14 +4368,10 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>APHA 21st Edition,9223B:2005</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>MPN/100mL</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
         <v>600</v>
       </c>
@@ -4377,7 +4389,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4385,7 +4397,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>8.060</t>
+          <t>1.79000</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4393,10 +4405,14 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU</t>
         </is>
       </c>
       <c r="H97" t="n">
@@ -4416,36 +4432,24 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
-        <v>44587.52430555555</v>
+        <v>44594</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>7.910</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Science - State of Environment</t>
-        </is>
-      </c>
+          <t>0.180</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>pH</t>
-        </is>
-      </c>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>600</v>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>7.910</t>
-        </is>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4455,40 +4459,24 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
-        <v>44587.52430555555</v>
+        <v>44594</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>&lt;0.0020</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Science - State of Environment</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
-        <v>600</v>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>7.910</t>
-        </is>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4498,40 +4486,24 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
-        <v>44587.52430555555</v>
+        <v>44594</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>&lt;0.002</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Science - State of Environment</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>3.580</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
-        <v>600</v>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>7.910</t>
-        </is>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4541,15 +4513,15 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
-        <v>44587.52430555555</v>
+        <v>44607.46597222222</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.007</t>
+          <t>0.0220</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4559,20 +4531,20 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Calculated (NH4 + TON)</t>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>7.910</t>
+          <t>7.790</t>
         </is>
       </c>
     </row>
@@ -4584,15 +4556,15 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
-        <v>44587.52430555555</v>
+        <v>44607.46597222222</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>0.030</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4602,16 +4574,20 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>ASTM D3977-97</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr"/>
+          <t>SHMAK Tube (&lt; 0.5 m)</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="H102" t="n">
         <v>600</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>7.910</t>
+          <t>7.790</t>
         </is>
       </c>
     </row>
@@ -4623,15 +4599,15 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
-        <v>44587.52430555555</v>
+        <v>44607.46597222222</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>0.4100</t>
+          <t>0.02000</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4641,7 +4617,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
@@ -4650,7 +4626,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>7.910</t>
+          <t>7.790</t>
         </is>
       </c>
     </row>
@@ -4662,15 +4638,15 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
-        <v>44587.52430555555</v>
+        <v>44607.46597222222</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0.01600</t>
+          <t>992</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4680,16 +4656,20 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr"/>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>MPN/100mL</t>
+        </is>
+      </c>
       <c r="H104" t="n">
         <v>600</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>7.910</t>
+          <t>7.790</t>
         </is>
       </c>
     </row>
@@ -4701,15 +4681,15 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
-        <v>44587.52430555555</v>
+        <v>44607.46597222222</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1.79000</t>
+          <t>9.680</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4717,14 +4697,10 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
-        </is>
-      </c>
+      <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H105" t="n">
@@ -4732,7 +4708,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>7.910</t>
+          <t>7.790</t>
         </is>
       </c>
     </row>
@@ -4744,24 +4720,36 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
-        <v>44594</v>
+        <v>44607.46597222222</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0.180</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr"/>
+          <t>7.790</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
       <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
       <c r="H106" t="n">
-        <v>200</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>600</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>7.790</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4771,24 +4759,40 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
-        <v>44594</v>
+        <v>44607.46597222222</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>76.00</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
+          <t>0.3270</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H107" t="n">
-        <v>200</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>600</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>7.790</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4798,24 +4802,40 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
-        <v>44594</v>
+        <v>44607.46597222222</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>3.580</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
+          <t>0.005</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H108" t="n">
-        <v>200</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>600</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>7.790</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4825,7 +4845,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4833,7 +4853,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>0.0220</t>
+          <t>0.3520</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4843,16 +4863,16 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+          <t>Calculated (NH4 + TON)</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
@@ -4868,7 +4888,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4876,7 +4896,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>0.030</t>
+          <t>0.7800</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4886,14 +4906,10 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>SHMAK Tube (&lt; 0.5 m)</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
       <c r="H110" t="n">
         <v>600</v>
       </c>
@@ -4911,7 +4927,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4919,7 +4935,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0.02000</t>
+          <t>0.08700</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4929,7 +4945,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
         </is>
       </c>
       <c r="G111" t="inlineStr"/>
@@ -4950,7 +4966,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4958,7 +4974,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>992</t>
+          <t>160.00000</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4968,12 +4984,12 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>APHA 21st Edition,9223B:2005</t>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>NTU</t>
         </is>
       </c>
       <c r="H112" t="n">
@@ -4993,15 +5009,15 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
-        <v>44607.46597222222</v>
+        <v>44726.52152777778</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>9.680</t>
+          <t>0.0490</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5009,7 +5025,11 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
       <c r="G113" t="inlineStr">
         <is>
           <t>g/m3</t>
@@ -5020,7 +5040,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>7.790</t>
+          <t>8.080</t>
         </is>
       </c>
     </row>
@@ -5032,15 +5052,15 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
-        <v>44607.46597222222</v>
+        <v>44726.52152777778</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>7.790</t>
+          <t>0.010</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5048,10 +5068,14 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>SHMAK Tube (&lt; 0.5 m)</t>
+        </is>
+      </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>m</t>
         </is>
       </c>
       <c r="H114" t="n">
@@ -5059,7 +5083,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>7.790</t>
+          <t>8.080</t>
         </is>
       </c>
     </row>
@@ -5071,15 +5095,15 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
-        <v>44607.46597222222</v>
+        <v>44726.52152777778</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>0.3270</t>
+          <t>0.01700</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5089,20 +5113,16 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>g/m3-N</t>
-        </is>
-      </c>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
       <c r="H115" t="n">
         <v>600</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>7.790</t>
+          <t>8.080</t>
         </is>
       </c>
     </row>
@@ -5114,15 +5134,15 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
-        <v>44607.46597222222</v>
+        <v>44726.52152777778</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0.005</t>
+          <t>3080</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5132,12 +5152,12 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+          <t>APHA 21st Edition,9223B:2005</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>MPN/100mL</t>
         </is>
       </c>
       <c r="H116" t="n">
@@ -5145,7 +5165,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>7.790</t>
+          <t>8.080</t>
         </is>
       </c>
     </row>
@@ -5157,15 +5177,15 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
-        <v>44607.46597222222</v>
+        <v>44726.52152777778</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0.352</t>
+          <t>11.190</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5173,22 +5193,18 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Calculated (NH4 + TON)</t>
-        </is>
-      </c>
+      <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>7.790</t>
+          <t>8.080</t>
         </is>
       </c>
     </row>
@@ -5200,15 +5216,15 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
-        <v>44607.46597222222</v>
+        <v>44726.52152777778</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>267.0</t>
+          <t>8.080</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5216,18 +5232,18 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>ASTM D3977-97</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
       <c r="H118" t="n">
         <v>600</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>7.790</t>
+          <t>8.080</t>
         </is>
       </c>
     </row>
@@ -5239,15 +5255,15 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
-        <v>44607.46597222222</v>
+        <v>44726.52152777778</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>0.7800</t>
+          <t>0.5270</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5257,16 +5273,20 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr"/>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H119" t="n">
         <v>600</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>7.790</t>
+          <t>8.080</t>
         </is>
       </c>
     </row>
@@ -5278,15 +5298,15 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
-        <v>44607.46597222222</v>
+        <v>44726.52152777778</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>0.08700</t>
+          <t>0.007</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5296,16 +5316,20 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr"/>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H120" t="n">
         <v>600</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>7.790</t>
+          <t>8.080</t>
         </is>
       </c>
     </row>
@@ -5317,15 +5341,15 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
-        <v>44607.46597222222</v>
+        <v>44726.52152777778</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>160.00000</t>
+          <t>0.5790</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5335,20 +5359,20 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+          <t>Calculated (NH4 + TON)</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>NTU</t>
+          <t>g/m3-N</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>7.790</t>
+          <t>8.080</t>
         </is>
       </c>
     </row>
@@ -5360,7 +5384,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -5368,7 +5392,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>0.0490</t>
+          <t>1.240</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5378,14 +5402,10 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
         <v>600</v>
       </c>
@@ -5403,7 +5423,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -5411,7 +5431,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>0.010</t>
+          <t>1.180</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5421,16 +5441,12 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>SHMAK Tube (&lt; 0.5 m)</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
@@ -5446,7 +5462,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -5454,7 +5470,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0.01700</t>
+          <t>2050.00000</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5464,10 +5480,14 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr"/>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>NTU</t>
+        </is>
+      </c>
       <c r="H124" t="n">
         <v>600</v>
       </c>
@@ -5485,15 +5505,15 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
-        <v>44726.52152777778</v>
+        <v>44769.51041666666</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>3080</t>
+          <t>0.0980</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5503,12 +5523,12 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>APHA 21st Edition,9223B:2005</t>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>MPN/100mL</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H125" t="n">
@@ -5516,7 +5536,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>8.080</t>
+          <t>8.020</t>
         </is>
       </c>
     </row>
@@ -5528,15 +5548,15 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
-        <v>44726.52152777778</v>
+        <v>44769.51041666666</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>11.190</t>
+          <t>0.010</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5544,10 +5564,14 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>SHMAK Tube (&lt; 0.5 m)</t>
+        </is>
+      </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
       <c r="H126" t="n">
@@ -5555,7 +5579,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>8.080</t>
+          <t>8.020</t>
         </is>
       </c>
     </row>
@@ -5567,15 +5591,15 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
-        <v>44726.52152777778</v>
+        <v>44769.51041666666</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>8.080</t>
+          <t>0.06200</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5583,18 +5607,18 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>pH</t>
-        </is>
-      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>8.080</t>
+          <t>8.020</t>
         </is>
       </c>
     </row>
@@ -5606,15 +5630,15 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
-        <v>44726.52152777778</v>
+        <v>44769.51041666666</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0.5270</t>
+          <t>1444</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5624,12 +5648,12 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+          <t>APHA 21st Edition,9223B:2005</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>MPN/100mL</t>
         </is>
       </c>
       <c r="H128" t="n">
@@ -5637,7 +5661,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>8.080</t>
+          <t>8.020</t>
         </is>
       </c>
     </row>
@@ -5649,15 +5673,15 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
-        <v>44726.52152777778</v>
+        <v>44769.51041666666</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>0.007</t>
+          <t>10.840</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5665,14 +5689,10 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
-        </is>
-      </c>
+      <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>g/m3</t>
         </is>
       </c>
       <c r="H129" t="n">
@@ -5680,7 +5700,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>8.080</t>
+          <t>8.020</t>
         </is>
       </c>
     </row>
@@ -5692,15 +5712,15 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
-        <v>44726.52152777778</v>
+        <v>44769.51041666666</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>0.579</t>
+          <t>8.020</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5708,22 +5728,18 @@
           <t>Science - State of Environment</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Calculated (NH4 + TON)</t>
-        </is>
-      </c>
+      <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr">
         <is>
-          <t>g/m3-N</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="H130" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>8.080</t>
+          <t>8.020</t>
         </is>
       </c>
     </row>
@@ -5735,15 +5751,15 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
-        <v>44726.52152777778</v>
+        <v>44769.51041666666</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2550</t>
+          <t>0.3690</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5753,16 +5769,20 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>ASTM D3977-97</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr"/>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H131" t="n">
         <v>600</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>8.080</t>
+          <t>8.020</t>
         </is>
       </c>
     </row>
@@ -5774,15 +5794,15 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
-        <v>44726.52152777778</v>
+        <v>44769.51041666666</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>1.240</t>
+          <t>0.005</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5792,16 +5812,20 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr"/>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H132" t="n">
         <v>600</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>8.080</t>
+          <t>8.020</t>
         </is>
       </c>
     </row>
@@ -5813,15 +5837,15 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
-        <v>44726.52152777778</v>
+        <v>44769.51041666666</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>1.180</t>
+          <t>0.4680</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5831,16 +5855,20 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr"/>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
       <c r="H133" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>8.080</t>
+          <t>8.020</t>
         </is>
       </c>
     </row>
@@ -5852,38 +5880,5076 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="n">
+        <v>44769.51041666666</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.400</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="n">
+        <v>600</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>8.020</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="n">
+        <v>44769.51041666666</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.5180</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="n">
+        <v>600</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>8.020</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
           <t>Turbidity</t>
         </is>
       </c>
-      <c r="C134" s="2" t="n">
-        <v>44726.52152777778</v>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>2050.00000</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Science - State of Environment</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
+      <c r="C136" s="2" t="n">
+        <v>44769.51041666666</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>479.00000</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
         <is>
           <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>NTU</t>
         </is>
       </c>
-      <c r="H134" t="n">
-        <v>600</v>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>8.080</t>
+      <c r="H136" t="n">
+        <v>600</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>8.020</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="n">
+        <v>44782.52847222222</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>600</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>8.610</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="n">
+        <v>44782.52847222222</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.005</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>SHMAK Tube (&lt; 0.5 m)</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>600</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>8.610</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C139" s="2" t="n">
+        <v>44782.52847222222</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.01600</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="n">
+        <v>600</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>8.610</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="n">
+        <v>44782.52847222222</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>6212</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>MPN/100mL</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>600</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>8.610</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="n">
+        <v>44782.52847222222</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>11.290</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>600</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>8.610</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="n">
+        <v>44782.52847222222</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>8.610</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>600</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>8.610</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C143" s="2" t="n">
+        <v>44782.52847222222</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.3370</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>600</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>8.610</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="n">
+        <v>44782.52847222222</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.006</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>600</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>8.610</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C145" s="2" t="n">
+        <v>44782.52847222222</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.3860</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>300</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>8.610</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="n">
+        <v>44782.52847222222</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2.350</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="n">
+        <v>500</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>8.610</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="n">
+        <v>44782.52847222222</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2.270</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="n">
+        <v>500</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>8.610</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="n">
+        <v>44782.52847222222</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>3700.00000</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>NTU</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>500</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>8.610</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C149" s="2" t="n">
+        <v>44845.48819444444</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>600</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>7.690</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="n">
+        <v>44845.48819444444</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>SHMAK Tube (&lt; 0.5 m)</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>600</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>7.690</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C151" s="2" t="n">
+        <v>44845.48819444444</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.009000</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="n">
+        <v>600</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>7.690</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="n">
+        <v>44845.48819444444</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>MPN/100mL</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>600</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>7.690</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C153" s="2" t="n">
+        <v>44845.48819444444</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>10.220</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>600</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>7.690</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="n">
+        <v>44845.48819444444</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>7.690</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>600</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>7.690</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C155" s="2" t="n">
+        <v>44845.48819444444</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.2050</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>600</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>7.690</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="n">
+        <v>44845.48819444444</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>600</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>7.690</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C157" s="2" t="n">
+        <v>44845.48819444444</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.2260</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>300</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>7.690</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="n">
+        <v>44845.48819444444</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.5200</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="n">
+        <v>600</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>7.690</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C159" s="2" t="n">
+        <v>44845.48819444444</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.06000</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="n">
+        <v>600</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>7.690</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="n">
+        <v>44845.48819444444</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>56.70000</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>NTU</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>600</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>7.690</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C161" s="2" t="n">
+        <v>44880.48819444444</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>600</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>7.530</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="n">
+        <v>44880.48819444444</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>SHMAK Tube (&lt; 0.5 m)</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>600</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>7.530</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C163" s="2" t="n">
+        <v>44880.48819444444</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.005000</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="n">
+        <v>600</v>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>7.530</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="n">
+        <v>44880.48819444444</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>MPN/100mL</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>600</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>7.530</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C165" s="2" t="n">
+        <v>44880.48819444444</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>8.030</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>600</v>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>7.530</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="n">
+        <v>44880.48819444444</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>7.530</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>600</v>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>7.530</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C167" s="2" t="n">
+        <v>44880.48819444444</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Calculation from NNN - Nitrite (both being APHA Online Edition Method 4500)</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>600</v>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>7.530</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="n">
+        <v>44880.48819444444</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>600</v>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>7.530</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C169" s="2" t="n">
+        <v>44880.48819444444</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>300</v>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>7.530</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="n">
+        <v>44880.48819444444</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.5400</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="n">
+        <v>600</v>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>7.530</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C171" s="2" t="n">
+        <v>44880.48819444444</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.05300</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="n">
+        <v>600</v>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>7.530</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="n">
+        <v>44880.48819444444</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>45.40000</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>NTU</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>600</v>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>7.530</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C173" s="2" t="n">
+        <v>44908.54583333333</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>600</v>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>7.780</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="n">
+        <v>44908.54583333333</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.490</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>SHMAK Tube (&lt; 0.5 m)</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>600</v>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>7.780</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C175" s="2" t="n">
+        <v>44908.54583333333</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.003000</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="n">
+        <v>600</v>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>7.780</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C176" s="2" t="n">
+        <v>44908.54583333333</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>MPN/100mL</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>600</v>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>7.780</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C177" s="2" t="n">
+        <v>44908.54583333333</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>8.410</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>600</v>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>7.780</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="n">
+        <v>44908.54583333333</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>7.780</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>600</v>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>7.780</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C179" s="2" t="n">
+        <v>44908.54583333333</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Calculation from NNN - Nitrite (both being APHA Online Edition Method 4500)</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>600</v>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>7.780</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C180" s="2" t="n">
+        <v>44908.54583333333</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>&lt;0.002</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>600</v>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>7.780</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C181" s="2" t="n">
+        <v>44908.54583333333</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>300</v>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>7.780</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="n">
+        <v>44908.54583333333</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.3900</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="n">
+        <v>600</v>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>7.780</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C183" s="2" t="n">
+        <v>44908.54583333333</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.02000</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="n">
+        <v>600</v>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>7.780</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C184" s="2" t="n">
+        <v>44908.54583333333</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>6.64000</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>NTU</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>600</v>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>7.780</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C185" s="2" t="n">
+        <v>44943.50486111111</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>600</v>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>7.840</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C186" s="2" t="n">
+        <v>44943.50486111111</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.140</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>SHMAK Tube (&lt; 0.5 m)</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>600</v>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>7.840</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C187" s="2" t="n">
+        <v>44943.50486111111</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.01000</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="n">
+        <v>600</v>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>7.840</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="n">
+        <v>44943.50486111111</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>MPN/100mL</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>600</v>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>7.840</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C189" s="2" t="n">
+        <v>44943.50486111111</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>8.690</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>600</v>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>7.840</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C190" s="2" t="n">
+        <v>44943.50486111111</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>7.840</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>600</v>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>7.840</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C191" s="2" t="n">
+        <v>44943.50486111111</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.1390</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Calculation from NNN - Nitrite (both being APHA Online Edition Method 4500)</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>600</v>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>7.840</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C192" s="2" t="n">
+        <v>44943.50486111111</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>600</v>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>7.840</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C193" s="2" t="n">
+        <v>44943.50486111111</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>300</v>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>7.840</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="n">
+        <v>44943.50486111111</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.6400</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="n">
+        <v>600</v>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>7.840</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C195" s="2" t="n">
+        <v>44943.50486111111</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.05700</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="n">
+        <v>600</v>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>7.840</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C196" s="2" t="n">
+        <v>44943.50486111111</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>28.30000</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>NTU</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>600</v>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>7.840</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C197" s="2" t="n">
+        <v>44979.54930555556</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>600</v>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>7.590</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C198" s="2" t="n">
+        <v>44979.54930555556</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.100</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>SHMAK Tube (&lt; 0.5 m)</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>600</v>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>7.590</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C199" s="2" t="n">
+        <v>44979.54930555556</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.01200</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="n">
+        <v>600</v>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>7.590</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="n">
+        <v>44979.54930555556</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>MPN/100mL</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>600</v>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>7.590</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="n">
+        <v>44979.54930555556</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>8.140</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>600</v>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>7.590</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C202" s="2" t="n">
+        <v>44979.54930555556</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>7.590</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>600</v>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>7.590</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C203" s="2" t="n">
+        <v>44979.54930555556</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.2290</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Calculation from NNN - Nitrite (both being APHA Online Edition Method 4500)</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>600</v>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>7.590</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="n">
+        <v>44979.54930555556</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.005</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>600</v>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>7.590</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="n">
+        <v>44979.54930555556</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.2810</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>300</v>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>7.590</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="n">
+        <v>44979.54930555556</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.6900</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="n">
+        <v>600</v>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>7.590</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="n">
+        <v>44979.54930555556</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.09400</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="n">
+        <v>600</v>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>7.590</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="n">
+        <v>44979.54930555556</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>59.10000</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>NTU</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>600</v>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>7.590</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C209" s="2" t="n">
+        <v>45015.46041666667</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>600</v>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>7.820</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="n">
+        <v>45015.46041666667</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.390</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>SHMAK Tube (&lt; 0.5 m)</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>600</v>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>7.820</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C211" s="2" t="n">
+        <v>45015.46041666667</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.004000</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="n">
+        <v>600</v>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>7.820</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C212" s="2" t="n">
+        <v>45015.46041666667</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>MPN/100mL</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>600</v>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>7.820</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C213" s="2" t="n">
+        <v>45015.46041666667</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>9.880</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr"/>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>600</v>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>7.820</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="n">
+        <v>45015.46041666667</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>7.820</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>600</v>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>7.820</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="n">
+        <v>45015.46041666667</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>&lt;0.0010</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Calculation from NNN - Nitrite (both being APHA Online Edition Method 4500)</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>600</v>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>7.820</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="n">
+        <v>45015.46041666667</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>&lt;0.002</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>600</v>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>7.820</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="n">
+        <v>45015.46041666667</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>300</v>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>7.820</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="n">
+        <v>45015.46041666667</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.4100</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="n">
+        <v>600</v>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>7.820</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C219" s="2" t="n">
+        <v>45015.46041666667</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.03000</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="n">
+        <v>600</v>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>7.820</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C220" s="2" t="n">
+        <v>45015.46041666667</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>5.62000</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Science - State of Environment</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>NTU</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>600</v>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>7.820</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C221" s="2" t="n">
+        <v>45029.50486111111</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>600</v>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>7.670</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="n">
+        <v>45029.50486111111</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.480</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>SHMAK Tube (&lt; 0.5 m)</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>600</v>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>7.670</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C223" s="2" t="n">
+        <v>45029.50486111111</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.002000</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="n">
+        <v>600</v>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>7.670</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C224" s="2" t="n">
+        <v>45029.50486111111</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>MPN/100mL</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>600</v>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>7.670</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C225" s="2" t="n">
+        <v>45029.50486111111</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>8.880</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>600</v>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>7.670</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C226" s="2" t="n">
+        <v>45029.50486111111</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>7.670</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>600</v>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>7.670</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C227" s="2" t="n">
+        <v>45029.50486111111</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>&lt;0.0010</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Calculation from NNN - Nitrite (both being APHA Online Edition Method 4500)</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>600</v>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>7.670</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C228" s="2" t="n">
+        <v>45029.50486111111</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>&lt;0.002</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>600</v>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>7.670</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C229" s="2" t="n">
+        <v>45029.50486111111</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>300</v>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>7.670</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C230" s="2" t="n">
+        <v>45029.50486111111</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.3400</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="n">
+        <v>600</v>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>7.670</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C231" s="2" t="n">
+        <v>45029.50486111111</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.01400</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="n">
+        <v>600</v>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>7.670</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C232" s="2" t="n">
+        <v>45029.50486111111</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>4.30000</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>NTU</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>600</v>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>7.670</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C233" s="2" t="n">
+        <v>45050.50416666667</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H233" t="n">
+        <v>600</v>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>7.700</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="n">
+        <v>45050.50416666667</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>0.260</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>SHMAK Tube (&lt; 0.5 m)</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H234" t="n">
+        <v>600</v>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>7.700</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C235" s="2" t="n">
+        <v>45050.50416666667</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>0.006000</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="n">
+        <v>600</v>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>7.700</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="n">
+        <v>45050.50416666667</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>MPN/100mL</t>
+        </is>
+      </c>
+      <c r="H236" t="n">
+        <v>600</v>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>7.700</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="n">
+        <v>45050.50416666667</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>9.430</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H237" t="n">
+        <v>600</v>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>7.700</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C238" s="2" t="n">
+        <v>45050.50416666667</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>7.700</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr"/>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="H238" t="n">
+        <v>600</v>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>7.700</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C239" s="2" t="n">
+        <v>45050.50416666667</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Calculation from NNN - Nitrite (both being APHA Online Edition Method 4500)</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H239" t="n">
+        <v>600</v>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>7.700</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C240" s="2" t="n">
+        <v>45050.50416666667</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H240" t="n">
+        <v>600</v>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>7.700</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C241" s="2" t="n">
+        <v>45050.50416666667</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H241" t="n">
+        <v>300</v>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>7.700</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C242" s="2" t="n">
+        <v>45050.50416666667</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>0.4900</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="n">
+        <v>600</v>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>7.700</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C243" s="2" t="n">
+        <v>45050.50416666667</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>0.04000</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="n">
+        <v>600</v>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>7.700</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C244" s="2" t="n">
+        <v>45050.50416666667</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>12.60000</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>NTU</t>
+        </is>
+      </c>
+      <c r="H244" t="n">
+        <v>600</v>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>7.700</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C245" s="2" t="n">
+        <v>45085.49236111111</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>NW02P Flow Injection Autoanalyser following APHA Online Edition Method 4500 NH3-H (modified).</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H245" t="n">
+        <v>600</v>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>7.940</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C246" s="2" t="n">
+        <v>45085.49236111111</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>0.090</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>SHMAK Tube (&lt; 0.5 m)</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="H246" t="n">
+        <v>600</v>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>7.940</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C247" s="2" t="n">
+        <v>45085.49236111111</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>0.005000</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="n">
+        <v>600</v>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>7.940</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C248" s="2" t="n">
+        <v>45085.49236111111</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>1313</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>APHA 21st Edition,9223B:2005</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>MPN/100mL</t>
+        </is>
+      </c>
+      <c r="H248" t="n">
+        <v>600</v>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>7.940</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C249" s="2" t="n">
+        <v>45085.49236111111</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>11.080</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+      <c r="H249" t="n">
+        <v>600</v>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>7.940</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C250" s="2" t="n">
+        <v>45085.49236111111</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>7.940</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr"/>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="H250" t="n">
+        <v>600</v>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>7.940</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C251" s="2" t="n">
+        <v>45085.49236111111</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Calculation from NNN - Nitrite (both being APHA Online Edition Method 4500)</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H251" t="n">
+        <v>600</v>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>7.940</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C252" s="2" t="n">
+        <v>45085.49236111111</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>0.005</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Ion Chromatography following USEPA 300.0 (modified)</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H252" t="n">
+        <v>600</v>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>7.940</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C253" s="2" t="n">
+        <v>45085.49236111111</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>0.2030</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Calculated (NH4 + TON)</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>g/m3-N</t>
+        </is>
+      </c>
+      <c r="H253" t="n">
+        <v>300</v>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>7.940</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C254" s="2" t="n">
+        <v>45085.49236111111</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>0.6900</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-NO3 I. Persulphate digestion follows APHA Online Edition 4500-N C.</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr"/>
+      <c r="H254" t="n">
+        <v>600</v>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>7.940</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C255" s="2" t="n">
+        <v>45085.49236111111</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Flow Injection Autoanalyser following APHA Online Edition Method 4500-P G. Persulphate digestion follows APHA Online Edition 4500-P B.</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="n">
+        <v>600</v>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>7.940</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Owahanga at Owahanga Station</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C256" s="2" t="n">
+        <v>45085.49236111111</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>19.50000</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Science - Coastal and Estuary</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Turbidity Meter following APHA 21st Edition Method 2130 B.</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>NTU</t>
+        </is>
+      </c>
+      <c r="H256" t="n">
+        <v>600</v>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>7.940</t>
         </is>
       </c>
     </row>
